--- a/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_3_kato_katz.xlsx
+++ b/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_3_kato_katz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C44193-2611-461C-B96A-15535A6622C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32624FF6-8B57-407A-9738-2392B61E9CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -169,12 +169,6 @@
     <t>allow_choice_duplicates</t>
   </si>
   <si>
-    <t>tz_sch_sth_impact_202311_3_kato_katz</t>
-  </si>
-  <si>
-    <t>(2023 Nov) - 3. SCH/STH - Kato Katz</t>
-  </si>
-  <si>
     <t>label::English</t>
   </si>
   <si>
@@ -308,6 +302,12 @@
   </si>
   <si>
     <t>The code must be the same. If the child has not been registered, please register him/her first.</t>
+  </si>
+  <si>
+    <t>(2023 Nov) - 3. SCH/STH - Kato Katz V1</t>
+  </si>
+  <si>
+    <t>tz_sch_sth_impact_202311_3_kato_katz_v1</t>
   </si>
 </sst>
 </file>
@@ -903,7 +903,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
@@ -934,10 +934,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>2</v>
@@ -946,7 +946,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>4</v>
@@ -964,7 +964,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" ht="31.5">
@@ -975,15 +975,15 @@
         <v>9</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1001,7 +1001,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="28"/>
@@ -1020,10 +1020,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="19"/>
@@ -1042,10 +1042,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="19"/>
@@ -1064,10 +1064,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="19"/>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="7" spans="1:13" s="27" customFormat="1" ht="31.5">
       <c r="A7" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -1095,7 +1095,7 @@
       <c r="G7" s="24"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="8" spans="1:13" s="15" customFormat="1">
       <c r="A8" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" s="41"/>
       <c r="D8" s="41"/>
@@ -1121,10 +1121,10 @@
     </row>
     <row r="9" spans="1:13" s="15" customFormat="1">
       <c r="A9" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -1133,7 +1133,7 @@
       <c r="G9" s="18"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="10" spans="1:13" s="15" customFormat="1" ht="63">
       <c r="A10" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -1153,7 +1153,7 @@
       <c r="G10" s="18"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -1192,18 +1192,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="17"/>
       <c r="F13" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
@@ -1218,10 +1218,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="17"/>
@@ -1229,7 +1229,7 @@
       <c r="G14" s="18"/>
       <c r="H14" s="19"/>
       <c r="I14" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J14" s="19" t="s">
         <v>10</v>
@@ -1245,18 +1245,18 @@
         <v>13</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="17"/>
       <c r="F15" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="17"/>
@@ -1274,7 +1274,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="32"/>
@@ -1296,7 +1296,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="32"/>
@@ -1318,7 +1318,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="32"/>
@@ -1340,7 +1340,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="32"/>
@@ -1362,7 +1362,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="32"/>
@@ -1384,7 +1384,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="32"/>
@@ -1406,7 +1406,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D22" s="36"/>
       <c r="E22" s="32"/>
@@ -1428,7 +1428,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D23" s="36"/>
       <c r="E23" s="32"/>
@@ -1536,7 +1536,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D29" s="36"/>
       <c r="E29" s="37"/>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B30" s="42"/>
       <c r="C30" s="43"/>
@@ -1631,7 +1631,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>33</v>
@@ -2794,7 +2794,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2819,13 +2819,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="15" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>

--- a/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_3_kato_katz.xlsx
+++ b/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_3_kato_katz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32624FF6-8B57-407A-9738-2392B61E9CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8B38A4-ED8F-4D61-9FD4-634D4B219067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
   <si>
     <t>type</t>
   </si>
@@ -289,9 +289,6 @@
     <t>concat(${k_site_id}, '_', ${k_index})</t>
   </si>
   <si>
-    <t>k</t>
-  </si>
-  <si>
     <t>k_code_id2</t>
   </si>
   <si>
@@ -304,10 +301,16 @@
     <t>The code must be the same. If the child has not been registered, please register him/her first.</t>
   </si>
   <si>
-    <t>(2023 Nov) - 3. SCH/STH - Kato Katz V1</t>
-  </si>
-  <si>
-    <t>tz_sch_sth_impact_202311_3_kato_katz_v1</t>
+    <t>(2023 Nov) - 3. SCH/STH - Kato Katz V1.1</t>
+  </si>
+  <si>
+    <t>tz_sch_sth_impact_202311_3_kato_katz_v1_1</t>
+  </si>
+  <si>
+    <t>k_1_1</t>
+  </si>
+  <si>
+    <t>Kato Katz result</t>
   </si>
 </sst>
 </file>
@@ -906,7 +909,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1106,9 +1109,11 @@
         <v>67</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="41"/>
+        <v>89</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>90</v>
+      </c>
       <c r="D8" s="41"/>
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
@@ -1189,7 +1194,7 @@
     </row>
     <row r="13" spans="1:13" s="31" customFormat="1" ht="47.25">
       <c r="A13" s="17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>72</v>
@@ -1236,27 +1241,24 @@
       </c>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
-      <c r="M14" s="31" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="15" spans="1:13" s="31" customFormat="1" ht="47.25">
       <c r="A15" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>84</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>85</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="17"/>
       <c r="F15" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>87</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="17"/>
@@ -2794,7 +2796,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2819,10 +2821,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>88</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>46</v>

--- a/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_3_kato_katz.xlsx
+++ b/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_3_kato_katz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8B38A4-ED8F-4D61-9FD4-634D4B219067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCF22A4-62DA-4C85-88EF-197EB4DB8445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="82">
   <si>
     <t>type</t>
   </si>
@@ -199,12 +199,6 @@
     <t>Select ward</t>
   </si>
   <si>
-    <t>Please select the QR code of the registered child</t>
-  </si>
-  <si>
-    <t>Please scan the QR Code again</t>
-  </si>
-  <si>
     <t>Schistosoma mansoni (eggs) - Slide A</t>
   </si>
   <si>
@@ -256,15 +250,6 @@
     <t>end repeat</t>
   </si>
   <si>
-    <t>k_index</t>
-  </si>
-  <si>
-    <t>join(' ', ${k_index})</t>
-  </si>
-  <si>
-    <t>if (${C2} = 1,'',substring-after(${C1},${k_index}))</t>
-  </si>
-  <si>
     <t>read_only</t>
   </si>
   <si>
@@ -280,37 +265,25 @@
     <t>Select school name</t>
   </si>
   <si>
-    <t>This child code already exists. Please edit the sequence number from the previous question</t>
-  </si>
-  <si>
-    <t>not(selected(${C3}, ${k_index}))</t>
-  </si>
-  <si>
-    <t>concat(${k_site_id}, '_', ${k_index})</t>
-  </si>
-  <si>
-    <t>k_code_id2</t>
-  </si>
-  <si>
     <t>Please select the code of the registered child</t>
   </si>
   <si>
-    <t>. = ${k_code_id}</t>
-  </si>
-  <si>
-    <t>The code must be the same. If the child has not been registered, please register him/her first.</t>
-  </si>
-  <si>
-    <t>(2023 Nov) - 3. SCH/STH - Kato Katz V1.1</t>
-  </si>
-  <si>
-    <t>tz_sch_sth_impact_202311_3_kato_katz_v1_1</t>
-  </si>
-  <si>
-    <t>k_1_1</t>
-  </si>
-  <si>
     <t>Kato Katz result</t>
+  </si>
+  <si>
+    <t>(2023 Nov) - 3. SCH/STH - Kato Katz V1.2</t>
+  </si>
+  <si>
+    <t>tz_sch_sth_impact_202311_3_kato_katz_v1_2</t>
+  </si>
+  <si>
+    <t>join(' ', ${k_code_id})</t>
+  </si>
+  <si>
+    <t>if (${C2} = 1,'',substring-after(${C1},${k_code_id}))</t>
+  </si>
+  <si>
+    <t>k_1_2</t>
   </si>
 </sst>
 </file>
@@ -903,13 +876,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -967,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" ht="31.5">
@@ -986,7 +959,7 @@
         <v>47</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1048,7 +1021,7 @@
         <v>49</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="19"/>
@@ -1067,10 +1040,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="19"/>
@@ -1086,10 +1059,10 @@
     </row>
     <row r="7" spans="1:13" s="27" customFormat="1" ht="31.5">
       <c r="A7" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -1098,7 +1071,7 @@
       <c r="G7" s="24"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
@@ -1106,13 +1079,13 @@
     </row>
     <row r="8" spans="1:13" s="15" customFormat="1">
       <c r="A8" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D8" s="41"/>
       <c r="E8" s="40"/>
@@ -1126,10 +1099,10 @@
     </row>
     <row r="9" spans="1:13" s="15" customFormat="1">
       <c r="A9" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -1138,7 +1111,7 @@
       <c r="G9" s="18"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
@@ -1146,10 +1119,10 @@
     </row>
     <row r="10" spans="1:13" s="15" customFormat="1" ht="63">
       <c r="A10" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -1158,125 +1131,131 @@
       <c r="G10" s="18"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="L10" s="28"/>
     </row>
-    <row r="11" spans="1:13" s="27" customFormat="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="19"/>
+    <row r="11" spans="1:13" s="31" customFormat="1">
+      <c r="A11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="24"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="K11" s="19"/>
-      <c r="L11" s="29"/>
-    </row>
-    <row r="12" spans="1:13" s="27" customFormat="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="29"/>
-    </row>
-    <row r="13" spans="1:13" s="31" customFormat="1" ht="47.25">
-      <c r="A13" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="18" t="s">
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:13" s="15" customFormat="1">
+      <c r="A12" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19" t="s">
+      <c r="D12" s="25"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-    </row>
-    <row r="14" spans="1:13" s="31" customFormat="1" ht="47.25">
-      <c r="A14" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="18" t="s">
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+    </row>
+    <row r="13" spans="1:13" s="15" customFormat="1">
+      <c r="A13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" s="19" t="s">
+      <c r="D13" s="25"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-    </row>
-    <row r="15" spans="1:13" s="31" customFormat="1" ht="47.25">
-      <c r="A15" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="19" t="s">
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+    </row>
+    <row r="14" spans="1:13" s="15" customFormat="1">
+      <c r="A14" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+    </row>
+    <row r="15" spans="1:13" s="15" customFormat="1">
+      <c r="A15" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
     </row>
     <row r="16" spans="1:13" s="15" customFormat="1">
       <c r="A16" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="32"/>
@@ -1295,10 +1274,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="32"/>
@@ -1316,13 +1295,13 @@
       <c r="A18" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="25"/>
+      <c r="B18" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="36"/>
       <c r="E18" s="32"/>
       <c r="F18" s="23"/>
       <c r="G18" s="33"/>
@@ -1338,13 +1317,13 @@
       <c r="A19" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="25"/>
+      <c r="B19" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="36"/>
       <c r="E19" s="32"/>
       <c r="F19" s="23"/>
       <c r="G19" s="33"/>
@@ -1360,13 +1339,13 @@
       <c r="A20" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="25"/>
+      <c r="B20" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="36"/>
       <c r="E20" s="32"/>
       <c r="F20" s="23"/>
       <c r="G20" s="33"/>
@@ -1382,13 +1361,13 @@
       <c r="A21" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="25"/>
+      <c r="B21" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="36"/>
       <c r="E21" s="32"/>
       <c r="F21" s="23"/>
       <c r="G21" s="33"/>
@@ -1401,206 +1380,118 @@
       <c r="L21" s="32"/>
     </row>
     <row r="22" spans="1:12" s="15" customFormat="1">
-      <c r="A22" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>61</v>
-      </c>
+      <c r="A22" s="23"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="36"/>
       <c r="E22" s="32"/>
       <c r="F22" s="23"/>
       <c r="G22" s="33"/>
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
-      <c r="J22" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
     </row>
     <row r="23" spans="1:12" s="15" customFormat="1">
-      <c r="A23" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>62</v>
-      </c>
+      <c r="A23" s="23"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="36"/>
       <c r="E23" s="32"/>
       <c r="F23" s="23"/>
       <c r="G23" s="33"/>
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
-      <c r="J23" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
     </row>
     <row r="24" spans="1:12" s="15" customFormat="1">
-      <c r="A24" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>24</v>
-      </c>
+      <c r="A24" s="23"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="36"/>
       <c r="E24" s="32"/>
       <c r="F24" s="23"/>
       <c r="G24" s="33"/>
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
-      <c r="J24" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-    </row>
-    <row r="25" spans="1:12" s="15" customFormat="1">
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="D25" s="36"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="33"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="36"/>
       <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-    </row>
-    <row r="26" spans="1:12" s="15" customFormat="1">
-      <c r="A26" s="23"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-    </row>
-    <row r="27" spans="1:12" s="15" customFormat="1">
-      <c r="A27" s="23"/>
-      <c r="B27" s="34"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="C27" s="35"/>
       <c r="D27" s="36"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="33"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="36"/>
       <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
+      <c r="I27" s="37"/>
       <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-    </row>
-    <row r="28" spans="1:12" s="15" customFormat="1">
-      <c r="A28" s="23"/>
-      <c r="B28" s="34"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="C28" s="35"/>
       <c r="D28" s="36"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="33"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="36"/>
       <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
+      <c r="I28" s="37"/>
       <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2796,7 +2687,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2821,10 +2712,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="15" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
         <v>46</v>

--- a/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_3_kato_katz.xlsx
+++ b/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_3_kato_katz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCF22A4-62DA-4C85-88EF-197EB4DB8445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB67D6D9-49BB-4ABE-9FDA-4B22C056E8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
   <si>
     <t>type</t>
   </si>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <t>k_1_2</t>
+  </si>
+  <si>
+    <t>not(selected(${C3}, ${k_code_id}))</t>
+  </si>
+  <si>
+    <t>This child code has already been selected.</t>
   </si>
 </sst>
 </file>
@@ -882,7 +888,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1137,7 +1143,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="28"/>
     </row>
-    <row r="11" spans="1:13" s="31" customFormat="1">
+    <row r="11" spans="1:13" s="31" customFormat="1" ht="31.5">
       <c r="A11" s="17" t="s">
         <v>13</v>
       </c>
@@ -1149,8 +1155,12 @@
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="18"/>
+      <c r="F11" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>83</v>
+      </c>
       <c r="H11" s="19"/>
       <c r="I11" s="17"/>
       <c r="J11" s="19" t="s">

--- a/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_3_kato_katz.xlsx
+++ b/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_3_kato_katz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E9DE26-92AD-46F3-8759-FC29596CAA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C14C6E-F12B-4931-B39A-9DCC1D1C946D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="131">
   <si>
     <t>type</t>
   </si>
@@ -275,9 +275,6 @@
   </si>
   <si>
     <t>Swahili</t>
-  </si>
-  <si>
-    <t>barcode</t>
   </si>
   <si>
     <t>k_barcode_id</t>
@@ -1098,10 +1095,10 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1183,10 +1180,10 @@
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="45" t="s">
         <v>108</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>109</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20" t="s">
@@ -1196,7 +1193,7 @@
         <v>56</v>
       </c>
       <c r="J2" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
@@ -1218,7 +1215,7 @@
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F3" s="46"/>
       <c r="G3" s="25"/>
@@ -1245,7 +1242,7 @@
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="16"/>
@@ -1272,7 +1269,7 @@
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="16"/>
@@ -1299,7 +1296,7 @@
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="16"/>
@@ -1331,7 +1328,7 @@
       <c r="J7" s="47"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
@@ -1402,7 +1399,7 @@
       <c r="J10" s="46"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
@@ -1410,17 +1407,17 @@
     </row>
     <row r="11" spans="1:16" s="28" customFormat="1">
       <c r="A11" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>128</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F11" s="46"/>
       <c r="G11" s="14"/>
@@ -1437,31 +1434,31 @@
     </row>
     <row r="12" spans="1:16" s="28" customFormat="1" ht="31.5">
       <c r="A12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>80</v>
-      </c>
       <c r="C12" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F12" s="46"/>
       <c r="G12" s="14"/>
       <c r="H12" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I12" s="15" t="s">
         <v>69</v>
       </c>
       <c r="J12" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="16" t="s">
@@ -1490,7 +1487,7 @@
       <c r="I13" s="30"/>
       <c r="J13" s="48"/>
       <c r="K13" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L13" s="29"/>
       <c r="M13" s="20" t="s">
@@ -1519,7 +1516,7 @@
       <c r="I14" s="30"/>
       <c r="J14" s="48"/>
       <c r="K14" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L14" s="29"/>
       <c r="M14" s="20" t="s">
@@ -1533,7 +1530,7 @@
         <v>57</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -1544,10 +1541,10 @@
       <c r="I15" s="30"/>
       <c r="J15" s="48"/>
       <c r="K15" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M15" s="20"/>
       <c r="N15" s="29"/>
@@ -1558,7 +1555,7 @@
         <v>57</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
@@ -1569,10 +1566,10 @@
       <c r="I16" s="30"/>
       <c r="J16" s="48"/>
       <c r="K16" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M16" s="20"/>
       <c r="N16" s="29"/>
@@ -1583,7 +1580,7 @@
         <v>57</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -1594,10 +1591,10 @@
       <c r="I17" s="30"/>
       <c r="J17" s="48"/>
       <c r="K17" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M17" s="20"/>
       <c r="N17" s="29"/>
@@ -1615,7 +1612,7 @@
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F18" s="45"/>
       <c r="G18" s="29"/>
@@ -1623,7 +1620,7 @@
       <c r="I18" s="30"/>
       <c r="J18" s="48"/>
       <c r="K18" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L18" s="29"/>
       <c r="M18" s="20" t="s">
@@ -1644,7 +1641,7 @@
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F19" s="45"/>
       <c r="G19" s="29"/>
@@ -1652,7 +1649,7 @@
       <c r="I19" s="30"/>
       <c r="J19" s="48"/>
       <c r="K19" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L19" s="29"/>
       <c r="M19" s="20" t="s">
@@ -1666,7 +1663,7 @@
         <v>57</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -1677,10 +1674,10 @@
       <c r="I20" s="30"/>
       <c r="J20" s="48"/>
       <c r="K20" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L20" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M20" s="20"/>
       <c r="N20" s="29"/>
@@ -1691,7 +1688,7 @@
         <v>57</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -1702,10 +1699,10 @@
       <c r="I21" s="30"/>
       <c r="J21" s="48"/>
       <c r="K21" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L21" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M21" s="20"/>
       <c r="N21" s="29"/>
@@ -1716,7 +1713,7 @@
         <v>57</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -1727,10 +1724,10 @@
       <c r="I22" s="30"/>
       <c r="J22" s="48"/>
       <c r="K22" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L22" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M22" s="20"/>
       <c r="N22" s="29"/>
@@ -1748,7 +1745,7 @@
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F23" s="45"/>
       <c r="G23" s="29"/>
@@ -1756,7 +1753,7 @@
       <c r="I23" s="30"/>
       <c r="J23" s="48"/>
       <c r="K23" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L23" s="29"/>
       <c r="M23" s="20" t="s">
@@ -1777,7 +1774,7 @@
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F24" s="45"/>
       <c r="G24" s="29"/>
@@ -1785,7 +1782,7 @@
       <c r="I24" s="30"/>
       <c r="J24" s="48"/>
       <c r="K24" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L24" s="29"/>
       <c r="M24" s="20" t="s">
@@ -1799,7 +1796,7 @@
         <v>57</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -1810,10 +1807,10 @@
       <c r="I25" s="30"/>
       <c r="J25" s="48"/>
       <c r="K25" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L25" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M25" s="20"/>
       <c r="N25" s="29"/>
@@ -1824,7 +1821,7 @@
         <v>57</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
@@ -1835,10 +1832,10 @@
       <c r="I26" s="30"/>
       <c r="J26" s="48"/>
       <c r="K26" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L26" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M26" s="20"/>
       <c r="N26" s="29"/>
@@ -1849,7 +1846,7 @@
         <v>57</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -1860,10 +1857,10 @@
       <c r="I27" s="30"/>
       <c r="J27" s="48"/>
       <c r="K27" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L27" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M27" s="20"/>
       <c r="N27" s="29"/>
@@ -1881,7 +1878,7 @@
       </c>
       <c r="D28" s="33"/>
       <c r="E28" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F28" s="49"/>
       <c r="G28" s="29"/>
@@ -1889,7 +1886,7 @@
       <c r="I28" s="30"/>
       <c r="J28" s="48"/>
       <c r="K28" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L28" s="29"/>
       <c r="M28" s="20" t="s">
@@ -1910,7 +1907,7 @@
       </c>
       <c r="D29" s="33"/>
       <c r="E29" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F29" s="49"/>
       <c r="G29" s="29"/>
@@ -1918,7 +1915,7 @@
       <c r="I29" s="30"/>
       <c r="J29" s="48"/>
       <c r="K29" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L29" s="29"/>
       <c r="M29" s="20" t="s">
@@ -1932,7 +1929,7 @@
         <v>57</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" s="32"/>
       <c r="D30" s="33"/>
@@ -1943,10 +1940,10 @@
       <c r="I30" s="30"/>
       <c r="J30" s="48"/>
       <c r="K30" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L30" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M30" s="20"/>
       <c r="N30" s="29"/>
@@ -1957,7 +1954,7 @@
         <v>57</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C31" s="32"/>
       <c r="D31" s="33"/>
@@ -1968,10 +1965,10 @@
       <c r="I31" s="30"/>
       <c r="J31" s="48"/>
       <c r="K31" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L31" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M31" s="20"/>
       <c r="N31" s="29"/>
@@ -1982,7 +1979,7 @@
         <v>57</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C32" s="32"/>
       <c r="D32" s="33"/>
@@ -1993,16 +1990,16 @@
       <c r="I32" s="30"/>
       <c r="J32" s="48"/>
       <c r="K32" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L32" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M32" s="20"/>
       <c r="N32" s="29"/>
       <c r="O32" s="29"/>
     </row>
-    <row r="33" spans="1:15" s="12" customFormat="1">
+    <row r="33" spans="1:15" s="12" customFormat="1" ht="31.5">
       <c r="A33" s="20" t="s">
         <v>14</v>
       </c>
@@ -2021,13 +2018,15 @@
       <c r="H33" s="20"/>
       <c r="I33" s="30"/>
       <c r="J33" s="48"/>
-      <c r="K33" s="29"/>
+      <c r="K33" s="16" t="s">
+        <v>130</v>
+      </c>
       <c r="L33" s="29"/>
       <c r="M33" s="20"/>
       <c r="N33" s="29"/>
       <c r="O33" s="29"/>
     </row>
-    <row r="34" spans="1:15" s="12" customFormat="1">
+    <row r="34" spans="1:15" s="12" customFormat="1" ht="31.5">
       <c r="A34" s="20" t="s">
         <v>14</v>
       </c>
@@ -2046,7 +2045,9 @@
       <c r="H34" s="20"/>
       <c r="I34" s="30"/>
       <c r="J34" s="48"/>
-      <c r="K34" s="29"/>
+      <c r="K34" s="16" t="s">
+        <v>130</v>
+      </c>
       <c r="L34" s="29"/>
       <c r="M34" s="20"/>
       <c r="N34" s="29"/>
@@ -2064,7 +2065,7 @@
       </c>
       <c r="D35" s="33"/>
       <c r="E35" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F35" s="49"/>
       <c r="G35" s="34"/>
@@ -2150,7 +2151,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2181,10 +2182,10 @@
         <v>33</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2" s="44" t="s">
         <v>74</v>
@@ -2195,10 +2196,10 @@
         <v>33</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" s="44" t="s">
         <v>75</v>

--- a/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_3_kato_katz.xlsx
+++ b/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_3_kato_katz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C14C6E-F12B-4931-B39A-9DCC1D1C946D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9863E0CA-AED8-4ECC-9321-ECCA339BFF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="148">
   <si>
     <t>type</t>
   </si>
@@ -250,15 +250,6 @@
     <t>This child code has already been selected.</t>
   </si>
   <si>
-    <t>(2024 Jan) - 3. SCH/STH - Kato Katz V2</t>
-  </si>
-  <si>
-    <t>tz_sch_sth_impact_202311_3_kato_katz_v2</t>
-  </si>
-  <si>
-    <t>tz_k_202401_v2</t>
-  </si>
-  <si>
     <t>label::Swahili</t>
   </si>
   <si>
@@ -431,6 +422,66 @@
   </si>
   <si>
     <t>${k_add_result} = 'Yes'</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>note_haematobium</t>
+  </si>
+  <si>
+    <t>Check : Are you sure you found S. Haematobium in stool?</t>
+  </si>
+  <si>
+    <t>Hakiki : Ni kweli umepata S. Haematobium katika kinyesi?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${k_sch_hae_sb}&gt;0 or ${k_sch_hae_sa}&gt;0 </t>
+  </si>
+  <si>
+    <t>select one yesNo</t>
+  </si>
+  <si>
+    <t>k_other_eggs</t>
+  </si>
+  <si>
+    <t>Other eggs from Kato Katz</t>
+  </si>
+  <si>
+    <t>Mayai mengine yaliyopatikana kwenye Kato Katz</t>
+  </si>
+  <si>
+    <t>other_eggs_name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Jina</t>
+  </si>
+  <si>
+    <t>other_eggs_sa</t>
+  </si>
+  <si>
+    <t>Slide A</t>
+  </si>
+  <si>
+    <t>other_eggs_sb</t>
+  </si>
+  <si>
+    <t>Slide B</t>
+  </si>
+  <si>
+    <t>${k_add_result} = 'Yes' and ${k_other_eggs} = 'Yes'</t>
+  </si>
+  <si>
+    <t>(2024 Jan) - 3. SCH/STH - Kato Katz V3.1</t>
+  </si>
+  <si>
+    <t>tz_sch_sth_impact_202311_3_kato_katz_v3_1</t>
+  </si>
+  <si>
+    <t>tz_k_202401_v3_1</t>
   </si>
 </sst>
 </file>
@@ -624,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -666,11 +717,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -715,7 +762,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -749,6 +796,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1092,25 +1147,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35:XFD35"/>
+      <selection pane="bottomRight" activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="47.5" style="35" customWidth="1"/>
+    <col min="1" max="1" width="19.625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="47.5" style="33" customWidth="1"/>
     <col min="4" max="6" width="47.375" style="13" customWidth="1"/>
     <col min="7" max="7" width="12.625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="16.875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.875" style="33" customWidth="1"/>
     <col min="9" max="10" width="29.5" style="13" customWidth="1"/>
-    <col min="11" max="11" width="16" style="13" customWidth="1"/>
+    <col min="11" max="11" width="24.375" style="13" customWidth="1"/>
     <col min="12" max="12" width="22.125" style="13" customWidth="1"/>
     <col min="13" max="13" width="9.75" style="13" customWidth="1"/>
     <col min="14" max="14" width="13.875" style="13" customWidth="1"/>
@@ -1132,10 +1187,10 @@
         <v>39</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>2</v>
@@ -1147,7 +1202,7 @@
         <v>40</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>4</v>
@@ -1172,36 +1227,36 @@
       <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20" t="s">
+      <c r="J2" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:16" s="12" customFormat="1">
       <c r="A3" s="14" t="s">
@@ -1214,150 +1269,150 @@
         <v>45</v>
       </c>
       <c r="D3" s="15"/>
-      <c r="E3" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="E3" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="44"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="15"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="25"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="23"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="14"/>
-      <c r="O3" s="25"/>
-    </row>
-    <row r="4" spans="1:16" s="24" customFormat="1">
+      <c r="O3" s="23"/>
+    </row>
+    <row r="4" spans="1:16" s="22" customFormat="1">
       <c r="A4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="47"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="45"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="47"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
       <c r="M4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="16"/>
-      <c r="O4" s="26"/>
-    </row>
-    <row r="5" spans="1:16" s="24" customFormat="1">
+      <c r="O4" s="24"/>
+    </row>
+    <row r="5" spans="1:16" s="22" customFormat="1">
       <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" s="47"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="45"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="47"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="45"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="16"/>
-      <c r="O5" s="26"/>
-    </row>
-    <row r="6" spans="1:16" s="24" customFormat="1">
+      <c r="O5" s="24"/>
+    </row>
+    <row r="6" spans="1:16" s="22" customFormat="1">
       <c r="A6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="47"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="45"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="47"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="45"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16" t="s">
         <v>10</v>
       </c>
       <c r="N6" s="16"/>
-      <c r="O6" s="26"/>
-    </row>
-    <row r="7" spans="1:16" s="24" customFormat="1">
+      <c r="O6" s="24"/>
+    </row>
+    <row r="7" spans="1:16" s="22" customFormat="1">
       <c r="A7" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="47"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="45"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
-      <c r="O7" s="26"/>
+      <c r="O7" s="24"/>
     </row>
     <row r="8" spans="1:16" s="12" customFormat="1">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="38" t="s">
+      <c r="B8" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
     </row>
     <row r="9" spans="1:16" s="12" customFormat="1">
       <c r="A9" s="14" t="s">
@@ -1368,19 +1423,19 @@
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="46"/>
+      <c r="J9" s="44"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14" t="s">
         <v>61</v>
       </c>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
-      <c r="O9" s="25"/>
+      <c r="O9" s="23"/>
     </row>
     <row r="10" spans="1:16" s="12" customFormat="1" ht="47.25">
       <c r="A10" s="14" t="s">
@@ -1391,39 +1446,39 @@
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="46"/>
+      <c r="J10" s="44"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
-      <c r="O10" s="25"/>
-    </row>
-    <row r="11" spans="1:16" s="28" customFormat="1">
+      <c r="O10" s="23"/>
+    </row>
+    <row r="11" spans="1:16" s="26" customFormat="1">
       <c r="A11" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="F11" s="46"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="14"/>
       <c r="H11" s="16"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="46"/>
+      <c r="J11" s="44"/>
       <c r="K11" s="16"/>
       <c r="L11" s="14"/>
       <c r="M11" s="16" t="s">
@@ -1432,33 +1487,33 @@
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
     </row>
-    <row r="12" spans="1:16" s="28" customFormat="1" ht="31.5">
+    <row r="12" spans="1:16" s="26" customFormat="1" ht="31.5">
       <c r="A12" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="F12" s="46"/>
+      <c r="E12" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="44"/>
       <c r="G12" s="14"/>
       <c r="H12" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I12" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="46" t="s">
-        <v>114</v>
+      <c r="J12" s="44" t="s">
+        <v>111</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="16" t="s">
@@ -1467,677 +1522,802 @@
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="31.5">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:16" s="12" customFormat="1">
+      <c r="A13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="43"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" s="27"/>
+      <c r="M13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+    </row>
+    <row r="14" spans="1:16" s="12" customFormat="1">
+      <c r="A14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="43"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" s="27"/>
+      <c r="M14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+    </row>
+    <row r="15" spans="1:16" s="12" customFormat="1">
+      <c r="A15" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L15" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="M15" s="18"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+    </row>
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="31.5">
+      <c r="A16" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L16" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" s="18"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+    </row>
+    <row r="17" spans="1:15" s="12" customFormat="1" ht="31.5">
+      <c r="A17" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L17" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="M17" s="18"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+    </row>
+    <row r="18" spans="1:15" s="12" customFormat="1">
+      <c r="A18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="43"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="27"/>
+      <c r="M18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+    </row>
+    <row r="19" spans="1:15" s="12" customFormat="1">
+      <c r="A19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="43"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="27"/>
+      <c r="M19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+    </row>
+    <row r="20" spans="1:15" s="12" customFormat="1" ht="31.5">
+      <c r="A20" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="M20" s="18"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+    </row>
+    <row r="21" spans="1:15" s="12" customFormat="1" ht="31.5">
+      <c r="A21" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L21" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="M21" s="18"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+    </row>
+    <row r="22" spans="1:15" s="12" customFormat="1" ht="31.5">
+      <c r="A22" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="M22" s="18"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+    </row>
+    <row r="23" spans="1:15" s="12" customFormat="1">
+      <c r="A23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="47"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L23" s="27"/>
+      <c r="M23" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+    </row>
+    <row r="24" spans="1:15" s="12" customFormat="1">
+      <c r="A24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="47"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L24" s="27"/>
+      <c r="M24" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+    </row>
+    <row r="25" spans="1:15" s="12" customFormat="1">
+      <c r="A25" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L25" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="M25" s="18"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+    </row>
+    <row r="26" spans="1:15" s="12" customFormat="1" ht="31.5">
+      <c r="A26" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L26" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="M26" s="18"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+    </row>
+    <row r="27" spans="1:15" s="12" customFormat="1" ht="31.5">
+      <c r="A27" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L27" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="M27" s="18"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+    </row>
+    <row r="28" spans="1:15" s="12" customFormat="1">
+      <c r="A28" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C28" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="45"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="16" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="43"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L28" s="27"/>
+      <c r="M28" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+    </row>
+    <row r="29" spans="1:15" s="12" customFormat="1">
+      <c r="A29" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="43"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L29" s="27"/>
+      <c r="M29" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+    </row>
+    <row r="30" spans="1:15" s="12" customFormat="1">
+      <c r="A30" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L30" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="M30" s="18"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+    </row>
+    <row r="31" spans="1:15" s="12" customFormat="1" ht="31.5">
+      <c r="A31" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L31" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="M31" s="18"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+    </row>
+    <row r="32" spans="1:15" s="12" customFormat="1" ht="31.5">
+      <c r="A32" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L32" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="M32" s="18"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+    </row>
+    <row r="33" spans="1:15" s="12" customFormat="1">
+      <c r="A33" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="47"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L33" s="27"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+    </row>
+    <row r="34" spans="1:15" s="12" customFormat="1">
+      <c r="A34" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="47"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L34" s="27"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+    </row>
+    <row r="35" spans="1:15" s="12" customFormat="1" ht="31.5">
+      <c r="A35" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="20" t="s">
+      <c r="D35" s="31"/>
+      <c r="E35" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="32"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="L35" s="27"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="50"/>
+      <c r="E36" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="51"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="M36" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-    </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="31.5">
-      <c r="A14" s="20" t="s">
+    </row>
+    <row r="37" spans="1:15" ht="31.5">
+      <c r="A37" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="50"/>
+      <c r="E37" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" s="51"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M37" s="48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="31.5">
+      <c r="A38" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L14" s="29"/>
-      <c r="M14" s="20" t="s">
+      <c r="B38" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="50"/>
+      <c r="E38" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="51"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M38" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-    </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="31.5">
-      <c r="A15" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L15" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="M15" s="20"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-    </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="31.5">
-      <c r="A16" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L16" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-    </row>
-    <row r="17" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A17" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L17" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="M17" s="20"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-    </row>
-    <row r="18" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A18" s="20" t="s">
+    </row>
+    <row r="39" spans="1:15" ht="31.5">
+      <c r="A39" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L18" s="29"/>
-      <c r="M18" s="20" t="s">
+      <c r="B39" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="50"/>
+      <c r="E39" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="51"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M39" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-    </row>
-    <row r="19" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A19" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="F19" s="45"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L19" s="29"/>
-      <c r="M19" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-    </row>
-    <row r="20" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A20" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L20" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="M20" s="20"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-    </row>
-    <row r="21" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A21" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L21" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="M21" s="20"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-    </row>
-    <row r="22" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A22" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="M22" s="20"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-    </row>
-    <row r="23" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A23" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" s="45"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L23" s="29"/>
-      <c r="M23" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-    </row>
-    <row r="24" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A24" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="45" t="s">
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="31"/>
+      <c r="E40" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="45"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L24" s="29"/>
-      <c r="M24" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-    </row>
-    <row r="25" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A25" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L25" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="M25" s="20"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-    </row>
-    <row r="26" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A26" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L26" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="M26" s="20"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-    </row>
-    <row r="27" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A27" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L27" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="M27" s="20"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-    </row>
-    <row r="28" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A28" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="49"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L28" s="29"/>
-      <c r="M28" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-    </row>
-    <row r="29" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A29" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="49"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L29" s="29"/>
-      <c r="M29" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-    </row>
-    <row r="30" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A30" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L30" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="M30" s="20"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-    </row>
-    <row r="31" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A31" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L31" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="M31" s="20"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-    </row>
-    <row r="32" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A32" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L32" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="M32" s="20"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-    </row>
-    <row r="33" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A33" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="49"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L33" s="29"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-    </row>
-    <row r="34" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A34" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="49"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L34" s="29"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" s="49"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="39" t="s">
+      <c r="F40" s="47"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L40" s="32"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="20" t="s">
+      <c r="B41" s="37"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B42" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="31" t="s">
+      <c r="C42" s="30"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B43" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2173,7 +2353,7 @@
         <v>38</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E1" s="3"/>
     </row>
@@ -2182,13 +2362,13 @@
         <v>33</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>74</v>
+        <v>121</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2196,19 +2376,19 @@
         <v>33</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>75</v>
+        <v>122</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
+      <c r="A4" s="4"/>
+      <c r="B4"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
@@ -3043,13 +3223,13 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:B28">
     <sortCondition ref="A5:A28"/>
   </sortState>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B4:B1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C3">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
@@ -3064,8 +3244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3090,13 +3270,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="12" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>

--- a/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_3_kato_katz.xlsx
+++ b/SCH-STH/Impact assessments/Tanzania/tz_sch_sth_impact_202311_3_kato_katz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C14C6E-F12B-4931-B39A-9DCC1D1C946D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A7C800-DD1B-458B-A08A-DCA681559EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="148">
   <si>
     <t>type</t>
   </si>
@@ -250,15 +250,6 @@
     <t>This child code has already been selected.</t>
   </si>
   <si>
-    <t>(2024 Jan) - 3. SCH/STH - Kato Katz V2</t>
-  </si>
-  <si>
-    <t>tz_sch_sth_impact_202311_3_kato_katz_v2</t>
-  </si>
-  <si>
-    <t>tz_k_202401_v2</t>
-  </si>
-  <si>
     <t>label::Swahili</t>
   </si>
   <si>
@@ -431,6 +422,66 @@
   </si>
   <si>
     <t>${k_add_result} = 'Yes'</t>
+  </si>
+  <si>
+    <t>(2024 Jan) - 3. SCH/STH - Kato Katz V4</t>
+  </si>
+  <si>
+    <t>tz_sch_sth_impact_202311_3_kato_katz_v4</t>
+  </si>
+  <si>
+    <t>tz_k_202401_v4</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>note_haematobium</t>
+  </si>
+  <si>
+    <t>Check : Are you sure you found S. Haematobium in stool?</t>
+  </si>
+  <si>
+    <t>Hakiki : Ni kweli umepata S. Haematobium katika kinyesi?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${k_sch_hae_sb}&gt;0 or ${k_sch_hae_sa}&gt;0 </t>
+  </si>
+  <si>
+    <t>select one yesNo</t>
+  </si>
+  <si>
+    <t>k_other_eggs</t>
+  </si>
+  <si>
+    <t>Other eggs from Kato Katz</t>
+  </si>
+  <si>
+    <t>Mayai mengine yaliyopatikana kwenye Kato Katz</t>
+  </si>
+  <si>
+    <t>other_eggs_name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Jina</t>
+  </si>
+  <si>
+    <t>other_eggs_sa</t>
+  </si>
+  <si>
+    <t>Slide A</t>
+  </si>
+  <si>
+    <t>other_eggs_sb</t>
+  </si>
+  <si>
+    <t>Slide B</t>
+  </si>
+  <si>
+    <t>${k_other_eggs} = 'Yes'</t>
   </si>
 </sst>
 </file>
@@ -624,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -749,6 +800,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1092,13 +1146,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35:XFD35"/>
+      <selection pane="bottomRight" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1132,10 +1186,10 @@
         <v>39</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>2</v>
@@ -1147,7 +1201,7 @@
         <v>40</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>4</v>
@@ -1180,10 +1234,10 @@
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="45" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20" t="s">
@@ -1193,7 +1247,7 @@
         <v>56</v>
       </c>
       <c r="J2" s="45" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
@@ -1215,7 +1269,7 @@
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="46" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F3" s="46"/>
       <c r="G3" s="25"/>
@@ -1242,7 +1296,7 @@
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="16"/>
@@ -1269,7 +1323,7 @@
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="47" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="16"/>
@@ -1296,7 +1350,7 @@
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="47" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="16"/>
@@ -1328,7 +1382,7 @@
       <c r="J7" s="47"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
@@ -1339,7 +1393,7 @@
         <v>59</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>68</v>
@@ -1399,7 +1453,7 @@
       <c r="J10" s="46"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
@@ -1407,17 +1461,17 @@
     </row>
     <row r="11" spans="1:16" s="28" customFormat="1">
       <c r="A11" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="46" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F11" s="46"/>
       <c r="G11" s="14"/>
@@ -1437,28 +1491,28 @@
         <v>13</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="46" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F12" s="46"/>
       <c r="G12" s="14"/>
       <c r="H12" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I12" s="15" t="s">
         <v>69</v>
       </c>
       <c r="J12" s="46" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="16" t="s">
@@ -1472,10 +1526,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="45" t="s">
@@ -1487,7 +1541,7 @@
       <c r="I13" s="30"/>
       <c r="J13" s="48"/>
       <c r="K13" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L13" s="29"/>
       <c r="M13" s="20" t="s">
@@ -1501,10 +1555,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="45" t="s">
@@ -1516,7 +1570,7 @@
       <c r="I14" s="30"/>
       <c r="J14" s="48"/>
       <c r="K14" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L14" s="29"/>
       <c r="M14" s="20" t="s">
@@ -1530,7 +1584,7 @@
         <v>57</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -1541,10 +1595,10 @@
       <c r="I15" s="30"/>
       <c r="J15" s="48"/>
       <c r="K15" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="M15" s="20"/>
       <c r="N15" s="29"/>
@@ -1555,7 +1609,7 @@
         <v>57</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
@@ -1566,10 +1620,10 @@
       <c r="I16" s="30"/>
       <c r="J16" s="48"/>
       <c r="K16" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="M16" s="20"/>
       <c r="N16" s="29"/>
@@ -1580,7 +1634,7 @@
         <v>57</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -1591,10 +1645,10 @@
       <c r="I17" s="30"/>
       <c r="J17" s="48"/>
       <c r="K17" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="M17" s="20"/>
       <c r="N17" s="29"/>
@@ -1612,7 +1666,7 @@
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F18" s="45"/>
       <c r="G18" s="29"/>
@@ -1620,7 +1674,7 @@
       <c r="I18" s="30"/>
       <c r="J18" s="48"/>
       <c r="K18" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L18" s="29"/>
       <c r="M18" s="20" t="s">
@@ -1641,7 +1695,7 @@
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="45" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F19" s="45"/>
       <c r="G19" s="29"/>
@@ -1649,7 +1703,7 @@
       <c r="I19" s="30"/>
       <c r="J19" s="48"/>
       <c r="K19" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L19" s="29"/>
       <c r="M19" s="20" t="s">
@@ -1663,7 +1717,7 @@
         <v>57</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -1674,10 +1728,10 @@
       <c r="I20" s="30"/>
       <c r="J20" s="48"/>
       <c r="K20" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L20" s="29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M20" s="20"/>
       <c r="N20" s="29"/>
@@ -1688,7 +1742,7 @@
         <v>57</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -1699,10 +1753,10 @@
       <c r="I21" s="30"/>
       <c r="J21" s="48"/>
       <c r="K21" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L21" s="29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M21" s="20"/>
       <c r="N21" s="29"/>
@@ -1713,7 +1767,7 @@
         <v>57</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -1724,10 +1778,10 @@
       <c r="I22" s="30"/>
       <c r="J22" s="48"/>
       <c r="K22" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L22" s="29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M22" s="20"/>
       <c r="N22" s="29"/>
@@ -1737,23 +1791,23 @@
       <c r="A23" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" s="45"/>
+      <c r="B23" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="49"/>
       <c r="G23" s="29"/>
       <c r="H23" s="20"/>
       <c r="I23" s="30"/>
       <c r="J23" s="48"/>
       <c r="K23" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L23" s="29"/>
       <c r="M23" s="20" t="s">
@@ -1766,23 +1820,23 @@
       <c r="A24" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="45"/>
+      <c r="B24" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="49"/>
       <c r="G24" s="29"/>
       <c r="H24" s="20"/>
       <c r="I24" s="30"/>
       <c r="J24" s="48"/>
       <c r="K24" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L24" s="29"/>
       <c r="M24" s="20" t="s">
@@ -1796,21 +1850,21 @@
         <v>57</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
+        <v>98</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
       <c r="G25" s="29"/>
       <c r="H25" s="20"/>
       <c r="I25" s="30"/>
       <c r="J25" s="48"/>
       <c r="K25" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L25" s="29" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M25" s="20"/>
       <c r="N25" s="29"/>
@@ -1821,21 +1875,21 @@
         <v>57</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
+        <v>99</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
       <c r="G26" s="29"/>
       <c r="H26" s="20"/>
       <c r="I26" s="30"/>
       <c r="J26" s="48"/>
       <c r="K26" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L26" s="29" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M26" s="20"/>
       <c r="N26" s="29"/>
@@ -1846,21 +1900,21 @@
         <v>57</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
+        <v>100</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
       <c r="G27" s="29"/>
       <c r="H27" s="20"/>
       <c r="I27" s="30"/>
       <c r="J27" s="48"/>
       <c r="K27" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L27" s="29" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M27" s="20"/>
       <c r="N27" s="29"/>
@@ -1870,23 +1924,23 @@
       <c r="A28" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="49"/>
+      <c r="B28" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="45"/>
       <c r="G28" s="29"/>
       <c r="H28" s="20"/>
       <c r="I28" s="30"/>
       <c r="J28" s="48"/>
       <c r="K28" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L28" s="29"/>
       <c r="M28" s="20" t="s">
@@ -1899,23 +1953,23 @@
       <c r="A29" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="49"/>
+      <c r="B29" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="45"/>
       <c r="G29" s="29"/>
       <c r="H29" s="20"/>
       <c r="I29" s="30"/>
       <c r="J29" s="48"/>
       <c r="K29" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L29" s="29"/>
       <c r="M29" s="20" t="s">
@@ -1929,21 +1983,21 @@
         <v>57</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
+        <v>80</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
       <c r="G30" s="29"/>
       <c r="H30" s="20"/>
       <c r="I30" s="30"/>
       <c r="J30" s="48"/>
       <c r="K30" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L30" s="29" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="M30" s="20"/>
       <c r="N30" s="29"/>
@@ -1954,21 +2008,21 @@
         <v>57</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
+        <v>81</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
       <c r="G31" s="29"/>
       <c r="H31" s="20"/>
       <c r="I31" s="30"/>
       <c r="J31" s="48"/>
       <c r="K31" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L31" s="29" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="M31" s="20"/>
       <c r="N31" s="29"/>
@@ -1979,21 +2033,21 @@
         <v>57</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
+        <v>82</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
       <c r="G32" s="29"/>
       <c r="H32" s="20"/>
       <c r="I32" s="30"/>
       <c r="J32" s="48"/>
       <c r="K32" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L32" s="29" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="M32" s="20"/>
       <c r="N32" s="29"/>
@@ -2019,7 +2073,7 @@
       <c r="I33" s="30"/>
       <c r="J33" s="48"/>
       <c r="K33" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L33" s="29"/>
       <c r="M33" s="20"/>
@@ -2046,98 +2100,241 @@
       <c r="I34" s="30"/>
       <c r="J34" s="48"/>
       <c r="K34" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L34" s="29"/>
       <c r="M34" s="20"/>
       <c r="N34" s="29"/>
       <c r="O34" s="29"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" s="12" customFormat="1" ht="31.5">
       <c r="A35" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="34"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="L35" s="29"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+    </row>
+    <row r="36" spans="1:15" s="12" customFormat="1">
+      <c r="A36" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="33"/>
+      <c r="E36" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" s="34"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="L36" s="29"/>
+      <c r="M36" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+    </row>
+    <row r="37" spans="1:15" s="12" customFormat="1" ht="31.5">
+      <c r="A37" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B37" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+    </row>
+    <row r="38" spans="1:15" s="12" customFormat="1" ht="31.5">
+      <c r="A38" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="33"/>
+      <c r="E38" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" s="34"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="L38" s="29"/>
+      <c r="M38" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+    </row>
+    <row r="39" spans="1:15" s="12" customFormat="1" ht="31.5">
+      <c r="A39" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="33"/>
+      <c r="E39" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F39" s="34"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="L39" s="29"/>
+      <c r="M39" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C40" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" s="49"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="39" t="s">
+      <c r="D40" s="33"/>
+      <c r="E40" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" s="49"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="20" t="s">
+      <c r="B41" s="39"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B42" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="31" t="s">
+      <c r="C42" s="32"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B43" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2173,7 +2370,7 @@
         <v>38</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E1" s="3"/>
     </row>
@@ -2182,13 +2379,13 @@
         <v>33</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2196,13 +2393,13 @@
         <v>33</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3065,7 +3262,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3090,13 +3287,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="12" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
